--- a/CSOF5103 Contratacion y Gerencia/0521PlanRespuestaRiesgo.xlsx
+++ b/CSOF5103 Contratacion y Gerencia/0521PlanRespuestaRiesgo.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="R17" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="RR11" sheetId="2" r:id="rId2"/>
+    <sheet name="RR14" sheetId="3" r:id="rId3"/>
     <sheet name="DV-IDENTITY-0" sheetId="4" state="veryHidden" r:id="rId4"/>
+    <sheet name="RR19" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>ID RIESGO</t>
   </si>
@@ -47,6 +48,9 @@
   </si>
   <si>
     <t>Todos los componentes individuales pasaron sus pruebas, pero el sistema integrado falló.</t>
+  </si>
+  <si>
+    <t>Erik Arcos</t>
   </si>
   <si>
     <t>Willian Alejandro Idrobo Luna</t>
@@ -73,6 +77,56 @@
   </si>
   <si>
     <t>AAAAAHz7cyA=</t>
+  </si>
+  <si>
+    <t>RR11</t>
+  </si>
+  <si>
+    <t>El analista senior del sistema que conocía toda la funcionalidad renunció</t>
+  </si>
+  <si>
+    <t>BAJA</t>
+  </si>
+  <si>
+    <t>Sandra Milena Gomez Rios</t>
+  </si>
+  <si>
+    <t>Evitar</t>
+  </si>
+  <si>
+    <t>El hecho de que un solo ingeniero dentro del proyecto sea el que conozca toda la funcionalidad en el proyecto, representa un riesgo potencial muy alto.
+Si este riesgo llegase a volverse realidad, se tendría un impacto muy alto del proyecto y se reflejaría en atrasos en el cronograma del proyecto. Es por esto que es de vital importacia evitar este riesgo.
+Para evitar este riesgo se debe:
+1. Dentro de las reuniones semanales que se realizan cada sábado, se debe destinar un tiempo para la socialización del conocimiento.
+2. En esta sección de socialización del conocimiento, cada integrante del grupo debe explicar de una manera rápida y fácil de entender, el conocimiento que ha adquirido acerca del marketplace de los alpes y de lo que pueda haber aprendido para futuras soluciones</t>
+  </si>
+  <si>
+    <t>RR14</t>
+  </si>
+  <si>
+    <t>Un miembro del equipo rompió sus dos brazos tres semanas antes de terminar el proyecto</t>
+  </si>
+  <si>
+    <t>Carlos Gonzales</t>
+  </si>
+  <si>
+    <t>Cualquier lesión por parte de alguno de los integrantes del grupo, se reflejará indudablemente en retrasos en el proyecto, y por ende en costos adicionales.
+En caso de que algún miembro del equipo se lesione de tal manera que no pueda colaborar en el desarrollo de las actividades que el proyecto requiere, se debe:
+1.Realizar una reunión extraordinaria, bien sea personal o via internet (skype, msn, gtalk, etc).
+2. Identificar las actividades asignadas al integrante del grupo lesionado.
+3. Reasignar las actividades de dicho integrante entre los integrantes restantes, teniendo en cuenta la prioridad de la tarea y la carga de trabajo de los integrantes.</t>
+  </si>
+  <si>
+    <t>RR19</t>
+  </si>
+  <si>
+    <t>Habilidades únicas y críticas de un desarrollador se perdieron cuando éste sufrió un ataque de corazón.</t>
+  </si>
+  <si>
+    <t>Dentro del proyecto es importante que todos los integrantes del equipo de trabajo tengan habilidades similares o las desarrolle durante el transcurso del proyecto, para de esta manera evitar que un integrante sea indispensable.
+Para reducir este riesgo se debe:
+1. Dentro de las reuniones semanales que se realizan cada sábado, se debe destinar un tiempo para la socialización del conocimiento.
+2. En esta sección de socialización del conocimiento, cada integrante del grupo debe explicar de una manera rápida y fácil de entender, el conocimiento que ha adquirido acerca del marketplace de los alpes y de lo que pueda haber aprendido para futuras soluciones.</t>
   </si>
 </sst>
 </file>
@@ -104,18 +158,83 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -124,13 +243,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -450,8 +591,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -462,10 +603,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -505,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -513,15 +654,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="255">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -539,12 +680,75 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="270">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <customProperties>
@@ -556,12 +760,75 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="255">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <customProperties>
@@ -573,7 +840,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1"/>
@@ -687,31 +954,202 @@
         <v>#VALUE!</v>
       </c>
       <c r="AA1">
-        <f>IF(Hoja2!1:1,"AAAAAHz7cxo=",0)</f>
+        <f>IF('RR11'!1:1,"AAAAAHz7cxo=",0)</f>
         <v>0</v>
       </c>
       <c r="AB1" t="e">
-        <f>AND(Hoja2!A1,"AAAAAHz7cxs=")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC1">
-        <f>IF(Hoja2!A:A,"AAAAAHz7cxw=",0)</f>
-        <v>0</v>
+        <f>AND('RR11'!A1,"AAAAAHz7cxs=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC1" t="e">
+        <f>IF('RR11'!A:A,"AAAAAHz7cxw=",0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AD1">
-        <f>IF(Hoja3!1:1,"AAAAAHz7cx0=",0)</f>
+        <f>IF('RR14'!1:1,"AAAAAHz7cx0=",0)</f>
         <v>0</v>
       </c>
       <c r="AE1" t="e">
-        <f>AND(Hoja3!A1,"AAAAAHz7cx4=")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF1">
-        <f>IF(Hoja3!A:A,"AAAAAHz7cx8=",0)</f>
-        <v>0</v>
+        <f>AND('RR14'!A1,"AAAAAHz7cx4=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF1" t="e">
+        <f>IF('RR14'!A:A,"AAAAAHz7cx8=",0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AG1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" t="e">
+        <f>AND('RR11'!B1,"AAAAAH/wvQA=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" t="e">
+        <f>IF('RR11'!2:2,"AAAAAH/wvQE=",0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" t="e">
+        <f>AND('RR11'!A2,"AAAAAH/wvQI=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" t="e">
+        <f>AND('RR11'!B2,"AAAAAH/wvQM=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2">
+        <f>IF('RR11'!3:3,"AAAAAH/wvQQ=",0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="e">
+        <f>AND('RR11'!A3,"AAAAAH/wvQU=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G2" t="e">
+        <f>AND('RR11'!B3,"AAAAAH/wvQY=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2">
+        <f>IF('RR11'!4:4,"AAAAAH/wvQc=",0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" t="e">
+        <f>AND('RR11'!A4,"AAAAAH/wvQg=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J2" t="e">
+        <f>AND('RR11'!B4,"AAAAAH/wvQk=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K2">
+        <f>IF('RR11'!5:5,"AAAAAH/wvQo=",0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" t="e">
+        <f>AND('RR11'!A5,"AAAAAH/wvQs=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M2" t="e">
+        <f>AND('RR11'!B5,"AAAAAH/wvQw=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N2">
+        <f>IF('RR11'!6:6,"AAAAAH/wvQ0=",0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" t="e">
+        <f>AND('RR11'!A6,"AAAAAH/wvQ4=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P2" t="e">
+        <f>AND('RR11'!B6,"AAAAAH/wvQ8=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q2">
+        <f>IF('RR11'!7:7,"AAAAAH/wvRA=",0)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" t="e">
+        <f>AND('RR11'!A7,"AAAAAH/wvRE=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S2" t="e">
+        <f>AND('RR11'!B7,"AAAAAH/wvRI=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T2" t="e">
+        <f>IF('RR11'!B:B,"AAAAAH/wvRM=",0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U2">
+        <f>IF('RR19'!1:1,"AAAAAH/wvRQ=",0)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" t="e">
+        <f>AND('RR19'!A1,"AAAAAH/wvRU=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W2" t="e">
+        <f>IF('RR19'!A:A,"AAAAAH/wvRY=",0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="DVSECTIONID" r:id="rId1"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Hoja5"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="285">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
